--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1850.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1850.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.4587503714563377</v>
+        <v>1.369957804679871</v>
       </c>
       <c r="B1">
-        <v>0.5152725924083628</v>
+        <v>2.838464498519897</v>
       </c>
       <c r="C1">
-        <v>0.6287867664240997</v>
+        <v>3.793054342269897</v>
       </c>
       <c r="D1">
-        <v>1.186432758609437</v>
+        <v>3.646950006484985</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>0.9798374176025391</v>
       </c>
     </row>
   </sheetData>
